--- a/Albert_Sze/01_LOG_SHEET_OF_CHANGES.xlsx
+++ b/Albert_Sze/01_LOG_SHEET_OF_CHANGES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\OneDrive\Documents\Boston University\CS506_Computational Tools for Data Science\CS506_Project\CS506_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\OneDrive\Documents\Boston University\CS506_Computational Tools for Data Science\CS506_Project\Albert_Sze\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Log  of Changes</t>
   </si>
@@ -48,6 +48,10 @@
 - training data consists of 2/3 of data
 - 1 test set consists of 1/12 of data
 - created clusters for Kmeans, GMM, and hierarchy for pre-911, post-911, and 2010+</t>
+  </si>
+  <si>
+    <t>- updated cluster based of weapons, tactical gear, and vehicles
+-still producing clusters based off of pre911, post911, and 2010+</t>
   </si>
 </sst>
 </file>
@@ -90,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -98,6 +102,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,7 +423,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,8 +473,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
